--- a/tests/recursive.xlsx
+++ b/tests/recursive.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="211" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="211"/>
   </bookViews>
   <sheets>
-    <sheet name="2" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="3" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="2" sheetId="1" r:id="rId1"/>
+    <sheet name="3" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>#B1(D):..(DR):[“pipe”, [“odict”, “recurse”]]</t>
   </si>
@@ -83,35 +82,20 @@
   </si>
   <si>
     <t>#_^(LD):..(LD):LURD:”df”</t>
+  </si>
+  <si>
+    <t>#BAD1:"filter"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -135,7 +119,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -143,155 +127,412 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.219387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="27.6328125"/>
+    <col min="2" max="2" width="31.1796875"/>
+    <col min="3" max="3" width="37.453125"/>
+    <col min="4" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>11</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>21</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>31</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -299,91 +540,87 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.54296875"/>
+    <col min="2" max="2" width="20.90625"/>
+    <col min="3" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>21</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>22</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>55</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>56</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>65</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>66</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="true" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -391,41 +628,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="n">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="0" t="n">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F7">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/tests/recursive.xlsx
+++ b/tests/recursive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>#B1(D):..(DR):[“pipe”, [“odict”, “recurse”]]</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>#BAD1:"filter"</t>
+  </si>
+  <si>
+    <t>No Recurse</t>
   </si>
 </sst>
 </file>
@@ -438,28 +441,28 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6328125"/>
-    <col min="2" max="2" width="31.1796875"/>
-    <col min="3" max="3" width="37.453125"/>
-    <col min="4" max="1025" width="11.54296875"/>
+    <col min="1" max="1" width="27.5703125"/>
+    <col min="2" max="2" width="31.140625"/>
+    <col min="3" max="3" width="37.42578125"/>
+    <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -467,7 +470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -475,7 +478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -483,12 +486,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>8</v>
       </c>
@@ -496,7 +507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -507,7 +518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -518,7 +529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -547,14 +558,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.54296875"/>
-    <col min="2" max="2" width="20.90625"/>
-    <col min="3" max="1025" width="11.54296875"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="20.85546875"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>11</v>
       </c>
@@ -568,7 +579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>21</v>
       </c>
@@ -582,7 +593,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1"/>
       <c r="E5">
         <v>65</v>
@@ -591,16 +602,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -608,7 +619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -616,7 +627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -635,22 +646,22 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="11.54296875"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F7">
         <v>3</v>
       </c>

--- a/tests/recursive.xlsx
+++ b/tests/recursive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>#B1(D):..(DR):[“pipe”, [“odict”, “recurse”]]</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>No Recurse</t>
+  </si>
+  <si>
+    <t>Empty</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -495,48 +498,53 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
     </row>

--- a/tests/recursive.xlsx
+++ b/tests/recursive.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="211"/>
+    <workbookView xWindow="2265" yWindow="1335" windowWidth="16380" windowHeight="8190" tabRatio="358"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="1" r:id="rId1"/>
     <sheet name="3" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="3" r:id="rId3"/>
+    <sheet name="eval sheet" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>#B1(D):..(DR):[“pipe”, [“odict”, “recurse”]]</t>
   </si>
@@ -91,6 +92,36 @@
   </si>
   <si>
     <t>Empty</t>
+  </si>
+  <si>
+    <t>P-eval</t>
+  </si>
+  <si>
+    <t>dict(a_dict=1)</t>
+  </si>
+  <si>
+    <t>EVAL_COL</t>
+  </si>
+  <si>
+    <t>NO_EVAL</t>
+  </si>
+  <si>
+    <t>a'+4</t>
+  </si>
+  <si>
+    <t>bad boy</t>
+  </si>
+  <si>
+    <t>a=1; a+5</t>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>#eval sheet!::{"opts": {"lax": true}, "func": "pipe", "args":[["df", {"index_col": null}]]}</t>
   </si>
 </sst>
 </file>
@@ -136,10 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -502,49 +534,57 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -682,4 +722,60 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/recursive.xlsx
+++ b/tests/recursive.xlsx
@@ -121,7 +121,7 @@
     <t>bus</t>
   </si>
   <si>
-    <t>#eval sheet!::{"opts": {"lax": true}, "func": "pipe", "args":[["df", {"index_col": null}]]}</t>
+    <t>#eval sheet!::{"opts": {"lax": true}, "func": "pipe", "args":[["df", {"index_col": null}], ["pyeval", ["numpy"]]]}</t>
   </si>
 </sst>
 </file>

--- a/tests/recursive.xlsx
+++ b/tests/recursive.xlsx
@@ -121,7 +121,7 @@
     <t>bus</t>
   </si>
   <si>
-    <t>#eval sheet!::{"opts": {"lax": true}, "func": "pipe", "args":[["df", {"index_col": null}], ["pyeval", ["numpy"]]]}</t>
+    <t>#eval sheet!::{"opts": {"lax": true}, "func": "pipe", "args":[["df", {"index_col": null}], ["pyeval", [["py", ["print(3.14+1); lasso"]]]]]}</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <dimension ref="B1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/tests/recursive.xlsx
+++ b/tests/recursive.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>#B1(D):..(DR):[“pipe”, [“odict”, “recurse”]]</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>#eval sheet!::{"opts": {"lax": true}, "func": "pipe", "args":[["df", {"index_col": null}], ["pyeval", [["py", ["print(3.14+1); lasso"]]]]]}</t>
+  </si>
+  <si>
+    <t>PevalAll</t>
+  </si>
+  <si>
+    <t>#eval sheet!::{"func": "pipe", "kwds":{"lax": false}, "args":[["df", {"index_col": null}], ["pyeval", {"include": "EVAL_COL", "eval_all": true}], "recurse"]}</t>
   </si>
 </sst>
 </file>
@@ -473,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -542,49 +548,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>15</v>
       </c>
     </row>

--- a/tests/recursive.xlsx
+++ b/tests/recursive.xlsx
@@ -11,6 +11,7 @@
     <sheet name="3" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="3" r:id="rId3"/>
     <sheet name="eval sheet" sheetId="4" r:id="rId4"/>
+    <sheet name="e2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -124,10 +125,10 @@
     <t>#eval sheet!::{"opts": {"lax": true}, "func": "pipe", "args":[["df", {"index_col": null}], ["pyeval", [["py", ["print(3.14+1); lasso"]]]]]}</t>
   </si>
   <si>
-    <t>PevalAll</t>
-  </si>
-  <si>
     <t>#eval sheet!::{"func": "pipe", "kwds":{"lax": false}, "args":[["df", {"index_col": null}], ["pyeval", {"include": "EVAL_COL", "eval_all": true}], "recurse"]}</t>
+  </si>
+  <si>
+    <t>#B2</t>
   </si>
 </sst>
 </file>
@@ -482,7 +483,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -546,14 +547,6 @@
       </c>
       <c r="C9" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -788,6 +781,27 @@
       <c r="C4" t="s">
         <v>26</v>
       </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/recursive.xlsx
+++ b/tests/recursive.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="1335" windowWidth="16380" windowHeight="8190" tabRatio="358"/>
+    <workbookView xWindow="2270" yWindow="1340" windowWidth="16380" windowHeight="8190" tabRatio="358"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="1" r:id="rId1"/>
@@ -122,13 +122,13 @@
     <t>bus</t>
   </si>
   <si>
-    <t>#eval sheet!::{"opts": {"lax": true}, "func": "pipe", "args":[["df", {"index_col": null}], ["pyeval", [["py", ["print(3.14+1); lasso"]]]]]}</t>
-  </si>
-  <si>
     <t>#eval sheet!::{"func": "pipe", "kwds":{"lax": false}, "args":[["df", {"index_col": null}], ["pyeval", {"include": "EVAL_COL", "eval_all": true}], "recurse"]}</t>
   </si>
   <si>
     <t>#B2</t>
+  </si>
+  <si>
+    <t>#eval sheet!::{"opts": {"lax": true}, "func": "pipe", "args":[["df", {"index_col": null}], ["pyeval", {"filters": [["py", ["print(3.14+1); lasso"]]]}]]}</t>
   </si>
 </sst>
 </file>
@@ -483,28 +483,28 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125"/>
-    <col min="2" max="2" width="31.140625"/>
-    <col min="3" max="3" width="37.42578125"/>
-    <col min="4" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="27.54296875"/>
+    <col min="2" max="2" width="31.1796875"/>
+    <col min="3" max="3" width="37.453125"/>
+    <col min="4" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -512,7 +512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -528,7 +528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -536,25 +536,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>8</v>
       </c>
@@ -562,7 +562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -573,7 +573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -584,7 +584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -613,14 +613,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="20.85546875"/>
-    <col min="3" max="1025" width="11.5703125"/>
+    <col min="1" max="1" width="11.54296875"/>
+    <col min="2" max="2" width="20.81640625"/>
+    <col min="3" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>11</v>
       </c>
@@ -634,7 +634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>21</v>
       </c>
@@ -648,7 +648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5">
         <v>65</v>
@@ -657,16 +657,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -674,7 +674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -682,7 +682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -701,22 +701,22 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.5703125"/>
+    <col min="1" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F7">
         <v>3</v>
       </c>
@@ -739,9 +739,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>16</v>
       </c>
@@ -752,7 +752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
@@ -763,7 +763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -774,7 +774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -796,11 +796,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
